--- a/ProjectManager-Status-Report-Template-ND.xlsx
+++ b/ProjectManager-Status-Report-Template-ND.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/Reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/git/MENS-SHED-SOC09109/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="8_{B7DA6FFB-89A5-844B-8DBF-A28EE3BDE5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74306BB7-BD1A-43CB-A7E2-E21BD8294562}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="8_{B7DA6FFB-89A5-844B-8DBF-A28EE3BDE5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD1E7B9C-B6F9-46EC-AFBA-3AA865A5936D}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status Report 13-02" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="64">
   <si>
     <t>Comments</t>
   </si>
@@ -227,6 +227,18 @@
   </si>
   <si>
     <t>First Prototype</t>
+  </si>
+  <si>
+    <t>Peer Review completed</t>
+  </si>
+  <si>
+    <t>some structure completed</t>
+  </si>
+  <si>
+    <t>Advertised/ Issue being resolved</t>
+  </si>
+  <si>
+    <t>Feedback done/ don't understand it?</t>
   </si>
 </sst>
 </file>
@@ -692,349 +704,349 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1608,14 +1620,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:87" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1688,12 +1700,12 @@
       <c r="CI1" s="1"/>
     </row>
     <row r="2" spans="1:87" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1768,10 +1780,10 @@
     <row r="3" spans="1:87" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="12"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="1"/>
@@ -1854,189 +1866,189 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:87" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="25" t="s">
+      <c r="B6" s="88"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
     </row>
     <row r="7" spans="1:87" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="25" t="s">
+      <c r="B7" s="88"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="89"/>
     </row>
     <row r="8" spans="1:87" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="40">
+      <c r="B8" s="88"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="111">
         <v>44970</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
     </row>
     <row r="9" spans="1:87" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="25" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89"/>
     </row>
     <row r="10" spans="1:87" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="25" t="s">
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
     </row>
     <row r="11" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
     </row>
     <row r="12" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="86"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
     </row>
     <row r="13" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24" t="s">
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
     </row>
     <row r="14" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24" t="s">
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
     </row>
     <row r="15" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
     </row>
     <row r="16" spans="1:87" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="73"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="59" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="60"/>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65" t="s">
+      <c r="F17" s="62"/>
+      <c r="G17" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="66"/>
+      <c r="H17" s="64"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43">
+      <c r="B18" s="45"/>
+      <c r="C18" s="24">
         <v>44970</v>
       </c>
       <c r="D18" s="16"/>
@@ -2044,15 +2056,15 @@
         <v>44</v>
       </c>
       <c r="F18" s="47"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="44"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43">
+      <c r="B19" s="45"/>
+      <c r="C19" s="24">
         <v>44971</v>
       </c>
       <c r="D19" s="16"/>
@@ -2060,17 +2072,17 @@
         <v>44</v>
       </c>
       <c r="F19" s="47"/>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="44"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43">
+      <c r="B20" s="45"/>
+      <c r="C20" s="24">
         <v>44967</v>
       </c>
       <c r="D20" s="16"/>
@@ -2078,17 +2090,17 @@
         <v>46</v>
       </c>
       <c r="F20" s="47"/>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="44"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43">
+      <c r="B21" s="45"/>
+      <c r="C21" s="24">
         <v>44967</v>
       </c>
       <c r="D21" s="16"/>
@@ -2096,49 +2108,49 @@
         <v>47</v>
       </c>
       <c r="F21" s="47"/>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="44"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="72"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="59" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="60"/>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="65" t="s">
+      <c r="F23" s="62"/>
+      <c r="G23" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="66"/>
+      <c r="H23" s="64"/>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43">
+      <c r="B24" s="45"/>
+      <c r="C24" s="24">
         <v>44977</v>
       </c>
       <c r="D24" s="16"/>
@@ -2146,15 +2158,15 @@
         <v>44</v>
       </c>
       <c r="F24" s="47"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="44"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="40"/>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43">
+      <c r="B25" s="45"/>
+      <c r="C25" s="24">
         <v>44977</v>
       </c>
       <c r="D25" s="16"/>
@@ -2162,15 +2174,15 @@
         <v>44</v>
       </c>
       <c r="F25" s="47"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="44"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43">
+      <c r="B26" s="45"/>
+      <c r="C26" s="24">
         <v>44970</v>
       </c>
       <c r="D26" s="16"/>
@@ -2178,57 +2190,57 @@
         <v>58</v>
       </c>
       <c r="F26" s="47"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="44"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="40"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="16"/>
       <c r="E27" s="46"/>
       <c r="F27" s="47"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="44"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="78"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="108"/>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A29" s="59" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="60"/>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="65" t="s">
+      <c r="F29" s="62"/>
+      <c r="G29" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="66"/>
+      <c r="H29" s="64"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43">
+      <c r="B30" s="45"/>
+      <c r="C30" s="24">
         <v>44977</v>
       </c>
       <c r="D30" s="16"/>
@@ -2236,15 +2248,15 @@
         <v>56</v>
       </c>
       <c r="F30" s="47"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="44"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="58">
+      <c r="B31" s="45"/>
+      <c r="C31" s="25">
         <v>44977</v>
       </c>
       <c r="D31" s="17"/>
@@ -2252,15 +2264,15 @@
         <v>55</v>
       </c>
       <c r="F31" s="47"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="44"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="40"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="58">
+      <c r="B32" s="45"/>
+      <c r="C32" s="25">
         <v>44977</v>
       </c>
       <c r="D32" s="18"/>
@@ -2268,57 +2280,57 @@
         <v>55</v>
       </c>
       <c r="F32" s="47"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="44"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="40"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="58"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="19"/>
       <c r="E33" s="46"/>
       <c r="F33" s="47"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="44"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="80"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A35" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="60"/>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="62" t="s">
+      <c r="D35" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="65" t="s">
+      <c r="F35" s="62"/>
+      <c r="G35" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H35" s="66"/>
+      <c r="H35" s="64"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43">
+      <c r="B36" s="45"/>
+      <c r="C36" s="24">
         <v>44977</v>
       </c>
       <c r="D36" s="16"/>
@@ -2326,302 +2338,302 @@
         <v>46</v>
       </c>
       <c r="F36" s="47"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="44"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="40"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="58"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="44"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="41"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="58"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="18"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="44"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="40"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="41"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="58"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="19"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="44"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="40"/>
     </row>
     <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
     </row>
     <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="106" t="s">
+      <c r="A41" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="108"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="100"/>
     </row>
     <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="100" t="s">
+      <c r="A42" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="102"/>
-      <c r="C42" s="110" t="s">
+      <c r="B42" s="95"/>
+      <c r="C42" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="111" t="s">
+      <c r="D42" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="96" t="s">
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="98"/>
+      <c r="H42" s="53"/>
     </row>
     <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
+      <c r="A43" s="96"/>
+      <c r="B43" s="96"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
     </row>
     <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="106" t="s">
+      <c r="A44" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="107"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="108"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="100"/>
     </row>
     <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="100" t="s">
+      <c r="A45" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="102"/>
-      <c r="C45" s="109" t="s">
+      <c r="B45" s="95"/>
+      <c r="C45" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="96" t="s">
+      <c r="D45" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="98"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="53"/>
     </row>
     <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
+      <c r="A46" s="96"/>
+      <c r="B46" s="96"/>
       <c r="C46" s="14"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="86"/>
     </row>
     <row r="47" spans="1:8" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="103" t="s">
+      <c r="A47" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="105"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="92"/>
     </row>
     <row r="48" spans="1:8" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="100" t="s">
+      <c r="A48" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="101"/>
-      <c r="C48" s="102"/>
-      <c r="D48" s="96" t="s">
+      <c r="B48" s="105"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="98"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="53"/>
     </row>
     <row r="49" spans="1:9" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="33"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="86"/>
     </row>
     <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="89" t="s">
+      <c r="A50" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="91"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="103"/>
     </row>
     <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="100" t="s">
+      <c r="A51" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="101"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="96" t="s">
+      <c r="B51" s="105"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="97"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="98"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="53"/>
     </row>
     <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="28"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="33"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:9" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="87" t="s">
+      <c r="A53" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="87"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="87"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
     </row>
     <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="92" t="s">
+      <c r="A54" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="93"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="95" t="s">
+      <c r="B54" s="49"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="96" t="s">
+      <c r="E54" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="97"/>
-      <c r="G54" s="98"/>
-      <c r="H54" s="99" t="s">
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="51"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="53"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="15"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="44"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="40"/>
       <c r="H55" s="21"/>
     </row>
     <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="51"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="53"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="20"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="50"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="43"/>
       <c r="H56" s="22"/>
     </row>
     <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="51"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="53"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="44"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="40"/>
       <c r="H57" s="21"/>
     </row>
     <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="51"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="53"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="13"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="44"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="40"/>
       <c r="H58" s="21"/>
     </row>
     <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="54"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="56"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="37"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="44"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="40"/>
       <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="88" t="s">
+      <c r="A60" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="88"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="88"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
     </row>
     <row r="61" spans="1:9" s="1" customFormat="1" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="27"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="89"/>
     </row>
     <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C62" s="8"/>
@@ -2983,52 +2995,56 @@
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="E54:G54"/>
@@ -3053,58 +3069,54 @@
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="D52:H52"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D10:H10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3121,8 +3133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12917775-FA55-48F6-B194-413E1F867264}">
   <dimension ref="A1:CI118"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3138,14 +3150,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:87" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3218,12 +3230,12 @@
       <c r="CI1" s="1"/>
     </row>
     <row r="2" spans="1:87" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3298,10 +3310,10 @@
     <row r="3" spans="1:87" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="12"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="1"/>
@@ -3384,16 +3396,16 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:87" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="59" t="s">
@@ -3430,7 +3442,7 @@
       <c r="B8" s="112"/>
       <c r="C8" s="60"/>
       <c r="D8" s="113">
-        <v>44970</v>
+        <v>44977</v>
       </c>
       <c r="E8" s="112"/>
       <c r="F8" s="112"/>
@@ -3466,107 +3478,107 @@
       <c r="H10" s="60"/>
     </row>
     <row r="11" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
     </row>
     <row r="12" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="86"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
     </row>
     <row r="13" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24" t="s">
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
     </row>
     <row r="14" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24" t="s">
+      <c r="A14" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
     </row>
     <row r="15" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
     </row>
     <row r="16" spans="1:87" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="73"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="59" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="60"/>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65" t="s">
+      <c r="F17" s="62"/>
+      <c r="G17" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="66"/>
+      <c r="H17" s="64"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43">
+      <c r="B18" s="45"/>
+      <c r="C18" s="24">
         <v>44970</v>
       </c>
       <c r="D18" s="16"/>
@@ -3574,15 +3586,17 @@
         <v>44</v>
       </c>
       <c r="F18" s="47"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="44"/>
+      <c r="G18" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43">
+      <c r="B19" s="45"/>
+      <c r="C19" s="24">
         <v>44971</v>
       </c>
       <c r="D19" s="16"/>
@@ -3590,17 +3604,17 @@
         <v>44</v>
       </c>
       <c r="F19" s="47"/>
-      <c r="G19" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="44"/>
+      <c r="G19" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43">
+      <c r="B20" s="45"/>
+      <c r="C20" s="24">
         <v>44967</v>
       </c>
       <c r="D20" s="16"/>
@@ -3608,17 +3622,17 @@
         <v>46</v>
       </c>
       <c r="F20" s="47"/>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="44"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43">
+      <c r="B21" s="45"/>
+      <c r="C21" s="24">
         <v>44967</v>
       </c>
       <c r="D21" s="16"/>
@@ -3626,49 +3640,49 @@
         <v>47</v>
       </c>
       <c r="F21" s="47"/>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="44"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="72"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="59" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="60"/>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="65" t="s">
+      <c r="F23" s="62"/>
+      <c r="G23" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="66"/>
+      <c r="H23" s="64"/>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43">
+      <c r="B24" s="45"/>
+      <c r="C24" s="24">
         <v>44977</v>
       </c>
       <c r="D24" s="16"/>
@@ -3676,15 +3690,15 @@
         <v>44</v>
       </c>
       <c r="F24" s="47"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="44"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="40"/>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43">
+      <c r="B25" s="45"/>
+      <c r="C25" s="24">
         <v>44977</v>
       </c>
       <c r="D25" s="16"/>
@@ -3692,15 +3706,15 @@
         <v>44</v>
       </c>
       <c r="F25" s="47"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="44"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43">
+      <c r="B26" s="45"/>
+      <c r="C26" s="24">
         <v>44970</v>
       </c>
       <c r="D26" s="16"/>
@@ -3708,57 +3722,59 @@
         <v>58</v>
       </c>
       <c r="F26" s="47"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="44"/>
+      <c r="G26" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="40"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="16"/>
       <c r="E27" s="46"/>
       <c r="F27" s="47"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="44"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="78"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="108"/>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A29" s="59" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="60"/>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="65" t="s">
+      <c r="F29" s="62"/>
+      <c r="G29" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="66"/>
+      <c r="H29" s="64"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43">
+      <c r="B30" s="45"/>
+      <c r="C30" s="24">
         <v>44977</v>
       </c>
       <c r="D30" s="16"/>
@@ -3766,15 +3782,15 @@
         <v>56</v>
       </c>
       <c r="F30" s="47"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="44"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="58">
+      <c r="B31" s="45"/>
+      <c r="C31" s="25">
         <v>44977</v>
       </c>
       <c r="D31" s="17"/>
@@ -3782,15 +3798,15 @@
         <v>55</v>
       </c>
       <c r="F31" s="47"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="44"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="40"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="58">
+      <c r="B32" s="45"/>
+      <c r="C32" s="25">
         <v>44977</v>
       </c>
       <c r="D32" s="18"/>
@@ -3798,57 +3814,57 @@
         <v>55</v>
       </c>
       <c r="F32" s="47"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="44"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="40"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="58"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="19"/>
       <c r="E33" s="46"/>
       <c r="F33" s="47"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="44"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="80"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A35" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="60"/>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="62" t="s">
+      <c r="D35" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="65" t="s">
+      <c r="F35" s="62"/>
+      <c r="G35" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H35" s="66"/>
+      <c r="H35" s="64"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43">
+      <c r="B36" s="45"/>
+      <c r="C36" s="24">
         <v>44977</v>
       </c>
       <c r="D36" s="16"/>
@@ -3856,302 +3872,302 @@
         <v>46</v>
       </c>
       <c r="F36" s="47"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="44"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="40"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="58"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="44"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="41"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="58"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="18"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="44"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="40"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="41"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="58"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="19"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="44"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="40"/>
     </row>
     <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
     </row>
     <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="106" t="s">
+      <c r="A41" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="108"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="100"/>
     </row>
     <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="100" t="s">
+      <c r="A42" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="102"/>
-      <c r="C42" s="110" t="s">
+      <c r="B42" s="95"/>
+      <c r="C42" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="111" t="s">
+      <c r="D42" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="96" t="s">
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="98"/>
+      <c r="H42" s="53"/>
     </row>
     <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
+      <c r="A43" s="96"/>
+      <c r="B43" s="96"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
     </row>
     <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="106" t="s">
+      <c r="A44" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="107"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="108"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="100"/>
     </row>
     <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="100" t="s">
+      <c r="A45" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="102"/>
-      <c r="C45" s="109" t="s">
+      <c r="B45" s="95"/>
+      <c r="C45" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="96" t="s">
+      <c r="D45" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="98"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="53"/>
     </row>
     <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
+      <c r="A46" s="96"/>
+      <c r="B46" s="96"/>
       <c r="C46" s="14"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="86"/>
     </row>
     <row r="47" spans="1:8" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="103" t="s">
+      <c r="A47" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="105"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="92"/>
     </row>
     <row r="48" spans="1:8" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="100" t="s">
+      <c r="A48" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="101"/>
-      <c r="C48" s="102"/>
-      <c r="D48" s="96" t="s">
+      <c r="B48" s="105"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="98"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="53"/>
     </row>
     <row r="49" spans="1:9" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="33"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="86"/>
     </row>
     <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="89" t="s">
+      <c r="A50" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="91"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="103"/>
     </row>
     <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="100" t="s">
+      <c r="A51" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="101"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="96" t="s">
+      <c r="B51" s="105"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="97"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="98"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="53"/>
     </row>
     <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="28"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="33"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:9" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="87" t="s">
+      <c r="A53" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="87"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="87"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
     </row>
     <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="92" t="s">
+      <c r="A54" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="93"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="95" t="s">
+      <c r="B54" s="49"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="96" t="s">
+      <c r="E54" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="97"/>
-      <c r="G54" s="98"/>
-      <c r="H54" s="99" t="s">
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="51"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="53"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="15"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="44"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="40"/>
       <c r="H55" s="21"/>
     </row>
     <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="51"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="53"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="20"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="50"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="43"/>
       <c r="H56" s="22"/>
     </row>
     <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="51"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="53"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="44"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="40"/>
       <c r="H57" s="21"/>
     </row>
     <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="51"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="53"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="13"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="44"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="40"/>
       <c r="H58" s="21"/>
     </row>
     <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="54"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="56"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="37"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="44"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="40"/>
       <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="88" t="s">
+      <c r="A60" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="88"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="88"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
     </row>
     <row r="61" spans="1:9" s="1" customFormat="1" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="27"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="89"/>
     </row>
     <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C62" s="8"/>
@@ -4513,16 +4529,104 @@
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:H43"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="D52:H52"/>
     <mergeCell ref="A53:H53"/>
@@ -4537,104 +4641,16 @@
     <mergeCell ref="A50:H50"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="D51:H51"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="E58:G58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4646,8 +4662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D305F0D-CA1A-4EBE-8EAD-B0AD4435DFC9}">
   <dimension ref="A1:CI118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G39" sqref="A36:H39"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -4663,14 +4679,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:87" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4743,12 +4759,12 @@
       <c r="CI1" s="1"/>
     </row>
     <row r="2" spans="1:87" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -4823,10 +4839,10 @@
     <row r="3" spans="1:87" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="12"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="1"/>
@@ -4909,16 +4925,16 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:87" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="59" t="s">
@@ -4955,7 +4971,7 @@
       <c r="B8" s="112"/>
       <c r="C8" s="60"/>
       <c r="D8" s="113">
-        <v>44970</v>
+        <v>44984</v>
       </c>
       <c r="E8" s="112"/>
       <c r="F8" s="112"/>
@@ -4991,612 +5007,612 @@
       <c r="H10" s="60"/>
     </row>
     <row r="11" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
     </row>
     <row r="12" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="86"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
     </row>
     <row r="13" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
     </row>
     <row r="14" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
     </row>
     <row r="15" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
     </row>
     <row r="16" spans="1:87" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="73"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="59" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="60"/>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65" t="s">
+      <c r="F17" s="62"/>
+      <c r="G17" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="66"/>
+      <c r="H17" s="64"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="16"/>
       <c r="E18" s="46"/>
       <c r="F18" s="47"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="44"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="16"/>
       <c r="E19" s="46"/>
       <c r="F19" s="47"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="44"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="16"/>
       <c r="E20" s="46"/>
       <c r="F20" s="47"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="44"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="16"/>
       <c r="E21" s="46"/>
       <c r="F21" s="47"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="72"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="59" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="60"/>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="65" t="s">
+      <c r="F23" s="62"/>
+      <c r="G23" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="66"/>
+      <c r="H23" s="64"/>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="16"/>
       <c r="E24" s="46"/>
       <c r="F24" s="47"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="44"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="40"/>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="16"/>
       <c r="E25" s="46"/>
       <c r="F25" s="47"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="44"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="16"/>
       <c r="E26" s="46"/>
       <c r="F26" s="47"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="44"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="40"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="16"/>
       <c r="E27" s="46"/>
       <c r="F27" s="47"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="44"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="78"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="108"/>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A29" s="59" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="60"/>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="65" t="s">
+      <c r="F29" s="62"/>
+      <c r="G29" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="66"/>
+      <c r="H29" s="64"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="16"/>
       <c r="E30" s="46"/>
       <c r="F30" s="47"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="44"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="58"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="17"/>
       <c r="E31" s="46"/>
       <c r="F31" s="47"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="44"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="40"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="41"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="58"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="18"/>
       <c r="E32" s="46"/>
       <c r="F32" s="47"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="44"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="40"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="58"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="19"/>
       <c r="E33" s="46"/>
       <c r="F33" s="47"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="44"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="80"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A35" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="60"/>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="62" t="s">
+      <c r="D35" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="65" t="s">
+      <c r="F35" s="62"/>
+      <c r="G35" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H35" s="66"/>
+      <c r="H35" s="64"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="41"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="16"/>
       <c r="E36" s="46"/>
       <c r="F36" s="47"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="44"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="40"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="58"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="44"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="41"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="58"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="18"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="44"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="40"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="41"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="58"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="19"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="44"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="40"/>
     </row>
     <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
     </row>
     <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="106" t="s">
+      <c r="A41" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="108"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="100"/>
     </row>
     <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="100" t="s">
+      <c r="A42" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="102"/>
-      <c r="C42" s="110" t="s">
+      <c r="B42" s="95"/>
+      <c r="C42" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="111" t="s">
+      <c r="D42" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="96" t="s">
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="98"/>
+      <c r="H42" s="53"/>
     </row>
     <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
+      <c r="A43" s="96"/>
+      <c r="B43" s="96"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
     </row>
     <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="106" t="s">
+      <c r="A44" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="107"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="108"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="100"/>
     </row>
     <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="100" t="s">
+      <c r="A45" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="102"/>
-      <c r="C45" s="109" t="s">
+      <c r="B45" s="95"/>
+      <c r="C45" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="96" t="s">
+      <c r="D45" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="98"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="53"/>
     </row>
     <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
+      <c r="A46" s="96"/>
+      <c r="B46" s="96"/>
       <c r="C46" s="14"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="86"/>
     </row>
     <row r="47" spans="1:8" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="103" t="s">
+      <c r="A47" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="105"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="92"/>
     </row>
     <row r="48" spans="1:8" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="100" t="s">
+      <c r="A48" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="101"/>
-      <c r="C48" s="102"/>
-      <c r="D48" s="96" t="s">
+      <c r="B48" s="105"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="98"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="53"/>
     </row>
     <row r="49" spans="1:9" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="33"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="86"/>
     </row>
     <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="89" t="s">
+      <c r="A50" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="91"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="103"/>
     </row>
     <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="100" t="s">
+      <c r="A51" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="101"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="96" t="s">
+      <c r="B51" s="105"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="97"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="98"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="53"/>
     </row>
     <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="28"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="33"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:9" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="87" t="s">
+      <c r="A53" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="87"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="87"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
     </row>
     <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="92" t="s">
+      <c r="A54" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="93"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="95" t="s">
+      <c r="B54" s="49"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="96" t="s">
+      <c r="E54" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="97"/>
-      <c r="G54" s="98"/>
-      <c r="H54" s="99" t="s">
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="51"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="53"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="15"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="44"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="40"/>
       <c r="H55" s="21"/>
     </row>
     <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="51"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="53"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="20"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="50"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="43"/>
       <c r="H56" s="22"/>
     </row>
     <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="51"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="53"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="44"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="40"/>
       <c r="H57" s="21"/>
     </row>
     <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="51"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="53"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="13"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="44"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="40"/>
       <c r="H58" s="21"/>
     </row>
     <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="54"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="56"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="37"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="44"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="40"/>
       <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="88" t="s">
+      <c r="A60" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="88"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="88"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
     </row>
     <row r="61" spans="1:9" s="1" customFormat="1" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="27"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="89"/>
     </row>
     <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C62" s="8"/>
@@ -5958,16 +5974,104 @@
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:H43"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="D52:H52"/>
     <mergeCell ref="A53:H53"/>
@@ -5982,104 +6086,16 @@
     <mergeCell ref="A50:H50"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="D51:H51"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="E58:G58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6108,14 +6124,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:87" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -6188,12 +6204,12 @@
       <c r="CI1" s="1"/>
     </row>
     <row r="2" spans="1:87" ht="13.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -6268,10 +6284,10 @@
     <row r="3" spans="1:87" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="12"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="1"/>
@@ -6354,16 +6370,16 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:87" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="59" t="s">
@@ -6436,612 +6452,612 @@
       <c r="H10" s="60"/>
     </row>
     <row r="11" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
     </row>
     <row r="12" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="86"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
     </row>
     <row r="13" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
     </row>
     <row r="14" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
     </row>
     <row r="15" spans="1:87" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
     </row>
     <row r="16" spans="1:87" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="73"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="59" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="60"/>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65" t="s">
+      <c r="F17" s="62"/>
+      <c r="G17" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="66"/>
+      <c r="H17" s="64"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="16"/>
       <c r="E18" s="46"/>
       <c r="F18" s="47"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="44"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="16"/>
       <c r="E19" s="46"/>
       <c r="F19" s="47"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="44"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="16"/>
       <c r="E20" s="46"/>
       <c r="F20" s="47"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="44"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="16"/>
       <c r="E21" s="46"/>
       <c r="F21" s="47"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="72"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="59" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="60"/>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="65" t="s">
+      <c r="F23" s="62"/>
+      <c r="G23" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="66"/>
+      <c r="H23" s="64"/>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="16"/>
       <c r="E24" s="46"/>
       <c r="F24" s="47"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="44"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="40"/>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="16"/>
       <c r="E25" s="46"/>
       <c r="F25" s="47"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="44"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="16"/>
       <c r="E26" s="46"/>
       <c r="F26" s="47"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="44"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="40"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="16"/>
       <c r="E27" s="46"/>
       <c r="F27" s="47"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="44"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="78"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="108"/>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A29" s="59" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="60"/>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="65" t="s">
+      <c r="F29" s="62"/>
+      <c r="G29" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="66"/>
+      <c r="H29" s="64"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="16"/>
       <c r="E30" s="46"/>
       <c r="F30" s="47"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="44"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="58"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="17"/>
       <c r="E31" s="46"/>
       <c r="F31" s="47"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="44"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="40"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="41"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="58"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="18"/>
       <c r="E32" s="46"/>
       <c r="F32" s="47"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="44"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="40"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="58"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="19"/>
       <c r="E33" s="46"/>
       <c r="F33" s="47"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="44"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="80"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A35" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="60"/>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="62" t="s">
+      <c r="D35" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="65" t="s">
+      <c r="F35" s="62"/>
+      <c r="G35" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H35" s="66"/>
+      <c r="H35" s="64"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="41"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="16"/>
       <c r="E36" s="46"/>
       <c r="F36" s="47"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="44"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="40"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="58"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="44"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="41"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="58"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="18"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="44"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="40"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="41"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="58"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="19"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="44"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="40"/>
     </row>
     <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
     </row>
     <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="106" t="s">
+      <c r="A41" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="108"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="100"/>
     </row>
     <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="100" t="s">
+      <c r="A42" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="102"/>
-      <c r="C42" s="110" t="s">
+      <c r="B42" s="95"/>
+      <c r="C42" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="111" t="s">
+      <c r="D42" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="96" t="s">
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="98"/>
+      <c r="H42" s="53"/>
     </row>
     <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
+      <c r="A43" s="96"/>
+      <c r="B43" s="96"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
     </row>
     <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="106" t="s">
+      <c r="A44" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="107"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="108"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="100"/>
     </row>
     <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="100" t="s">
+      <c r="A45" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="102"/>
-      <c r="C45" s="109" t="s">
+      <c r="B45" s="95"/>
+      <c r="C45" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="96" t="s">
+      <c r="D45" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="98"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="53"/>
     </row>
     <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
+      <c r="A46" s="96"/>
+      <c r="B46" s="96"/>
       <c r="C46" s="14"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="86"/>
     </row>
     <row r="47" spans="1:8" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="103" t="s">
+      <c r="A47" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="105"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="92"/>
     </row>
     <row r="48" spans="1:8" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="100" t="s">
+      <c r="A48" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="101"/>
-      <c r="C48" s="102"/>
-      <c r="D48" s="96" t="s">
+      <c r="B48" s="105"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="98"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="53"/>
     </row>
     <row r="49" spans="1:9" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="33"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="86"/>
     </row>
     <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="89" t="s">
+      <c r="A50" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="91"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="103"/>
     </row>
     <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="100" t="s">
+      <c r="A51" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="101"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="96" t="s">
+      <c r="B51" s="105"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="97"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="98"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="53"/>
     </row>
     <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="28"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="33"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:9" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="87" t="s">
+      <c r="A53" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="87"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="87"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
     </row>
     <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="92" t="s">
+      <c r="A54" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="93"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="95" t="s">
+      <c r="B54" s="49"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="96" t="s">
+      <c r="E54" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="97"/>
-      <c r="G54" s="98"/>
-      <c r="H54" s="99" t="s">
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="51"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="53"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="15"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="44"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="40"/>
       <c r="H55" s="21"/>
     </row>
     <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="51"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="53"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="20"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="50"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="43"/>
       <c r="H56" s="22"/>
     </row>
     <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="51"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="53"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="44"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="40"/>
       <c r="H57" s="21"/>
     </row>
     <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="51"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="53"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="13"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="44"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="40"/>
       <c r="H58" s="21"/>
     </row>
     <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="54"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="56"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="37"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="44"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="40"/>
       <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="88" t="s">
+      <c r="A60" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="88"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="88"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
     </row>
     <row r="61" spans="1:9" s="1" customFormat="1" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="27"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="89"/>
     </row>
     <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C62" s="8"/>
@@ -7403,16 +7419,104 @@
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:H43"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="D52:H52"/>
     <mergeCell ref="A53:H53"/>
@@ -7427,104 +7531,16 @@
     <mergeCell ref="A50:H50"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="D51:H51"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="E58:G58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
